--- a/RQ1/384_np_suffix_prefix_with_arbitrate.xlsx
+++ b/RQ1/384_np_suffix_prefix_with_arbitrate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\api_diff\数据\统计\RQ1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06BF8CD-2DAC-4AD3-A1D2-989D123057F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3074F0-FF83-4AC1-9B3C-8677F207066A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12030" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12030" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="624">
   <si>
     <t>start</t>
   </si>
@@ -1869,14 +1869,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>result_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>arbitrate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1886,10 +1878,6 @@
   </si>
   <si>
     <t>ctrl key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1927,7 +1915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1950,26 +1938,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2007,28 +1982,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2366,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC62C9-5F3D-49B6-98F2-3100354E5568}">
   <dimension ref="A1:E386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -2388,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2464,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C6" t="s">
         <v>380</v>
@@ -2549,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C11" t="s">
         <v>380</v>
@@ -2940,7 +2907,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C34" t="s">
         <v>380</v>
@@ -2974,7 +2941,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C36" t="s">
         <v>380</v>
@@ -3331,7 +3298,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C57" t="s">
         <v>380</v>
@@ -3399,7 +3366,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C61" t="s">
         <v>380</v>
@@ -3484,7 +3451,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C66" t="s">
         <v>381</v>
@@ -4742,7 +4709,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C140" t="s">
         <v>380</v>
@@ -8946,7 +8913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD16C6C-06D8-43EE-8D8B-EBECF928A9AC}">
   <dimension ref="A1:E386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -8963,7 +8930,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -10059,7 +10026,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C66" t="s">
         <v>381</v>
@@ -15519,10 +15486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15530,11 +15497,10 @@
     <col min="2" max="2" width="65.25" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="45.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15547,17 +15513,9 @@
       <c r="E1" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15570,21 +15528,11 @@
       <c r="D2" t="s">
         <v>382</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>SUM(G2:G386)</f>
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15600,17 +15548,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15626,14 +15565,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15649,14 +15582,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15669,17 +15596,11 @@
       <c r="D6" t="s">
         <v>386</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15692,17 +15613,11 @@
       <c r="D7" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -15718,14 +15633,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -15741,14 +15650,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -15764,14 +15667,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15787,14 +15684,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -15810,14 +15701,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -15833,14 +15718,8 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15856,14 +15735,8 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -15876,17 +15749,11 @@
       <c r="D15" t="s">
         <v>394</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -15899,17 +15766,11 @@
       <c r="D16" t="s">
         <v>395</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -15922,17 +15783,11 @@
       <c r="D17" t="s">
         <v>396</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -15945,17 +15800,11 @@
       <c r="D18" t="s">
         <v>397</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -15968,17 +15817,11 @@
       <c r="D19" t="s">
         <v>398</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -15994,14 +15837,8 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -16014,17 +15851,11 @@
       <c r="D21" t="s">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -16040,14 +15871,8 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -16063,14 +15888,8 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -16086,14 +15905,8 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -16106,17 +15919,11 @@
       <c r="D25" t="s">
         <v>404</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -16129,17 +15936,11 @@
       <c r="D26" t="s">
         <v>405</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -16152,17 +15953,11 @@
       <c r="D27" t="s">
         <v>406</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16178,14 +15973,8 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16201,14 +15990,8 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16224,14 +16007,8 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16244,17 +16021,11 @@
       <c r="D31" t="s">
         <v>410</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -16270,14 +16041,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -16293,14 +16058,8 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -16316,14 +16075,8 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -16339,14 +16092,8 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -16362,14 +16109,8 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -16382,17 +16123,11 @@
       <c r="D37" t="s">
         <v>416</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -16408,14 +16143,8 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -16431,14 +16160,8 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -16454,14 +16177,8 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -16477,14 +16194,8 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -16500,14 +16211,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -16523,14 +16228,8 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -16543,17 +16242,11 @@
       <c r="D44" t="s">
         <v>606</v>
       </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -16566,17 +16259,11 @@
       <c r="D45" t="s">
         <v>424</v>
       </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -16589,17 +16276,11 @@
       <c r="D46" t="s">
         <v>425</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -16615,14 +16296,8 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -16635,17 +16310,11 @@
       <c r="D48" t="s">
         <v>427</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -16658,17 +16327,11 @@
       <c r="D49" t="s">
         <v>428</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -16684,14 +16347,8 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -16707,14 +16364,8 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -16730,14 +16381,8 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -16750,17 +16395,11 @@
       <c r="D53" t="s">
         <v>432</v>
       </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -16776,14 +16415,8 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -16799,14 +16432,8 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -16822,14 +16449,8 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -16845,14 +16466,8 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -16868,14 +16483,8 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -16888,17 +16497,11 @@
       <c r="D59" t="s">
         <v>434</v>
       </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -16914,14 +16517,8 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -16937,14 +16534,8 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -16960,14 +16551,8 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -16983,14 +16568,8 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -17006,14 +16585,8 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -17029,37 +16602,25 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C66" t="s">
         <v>381</v>
       </c>
       <c r="D66" t="s">
-        <v>615</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+        <v>613</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -17072,17 +16633,11 @@
       <c r="D67" t="s">
         <v>440</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -17098,14 +16653,8 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -17121,14 +16670,8 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -17144,14 +16687,8 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -17167,14 +16704,8 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -17187,17 +16718,11 @@
       <c r="D72" t="s">
         <v>445</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -17210,17 +16735,11 @@
       <c r="D73" t="s">
         <v>446</v>
       </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -17236,14 +16755,8 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -17259,14 +16772,8 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -17279,17 +16786,11 @@
       <c r="D76" t="s">
         <v>404</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -17302,17 +16803,11 @@
       <c r="D77" t="s">
         <v>449</v>
       </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -17328,14 +16823,8 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -17351,14 +16840,8 @@
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -17371,17 +16854,11 @@
       <c r="D80" t="s">
         <v>452</v>
       </c>
-      <c r="E80" s="3">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -17394,17 +16871,11 @@
       <c r="D81" t="s">
         <v>244</v>
       </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -17420,14 +16891,8 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -17443,14 +16908,8 @@
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -17466,14 +16925,8 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -17486,17 +16939,11 @@
       <c r="D85" t="s">
         <v>405</v>
       </c>
-      <c r="E85" s="3">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -17512,14 +16959,8 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -17535,14 +16976,8 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -17558,14 +16993,8 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17578,17 +17007,11 @@
       <c r="D89" t="s">
         <v>458</v>
       </c>
-      <c r="E89" s="3">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17604,14 +17027,8 @@
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17627,14 +17044,8 @@
       <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17647,17 +17058,11 @@
       <c r="D92" t="s">
         <v>392</v>
       </c>
-      <c r="E92" s="3">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17670,17 +17075,11 @@
       <c r="D93" t="s">
         <v>391</v>
       </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17696,14 +17095,8 @@
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17719,14 +17112,8 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17742,14 +17129,8 @@
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17762,17 +17143,11 @@
       <c r="D97" t="s">
         <v>462</v>
       </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -17788,14 +17163,8 @@
       <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17808,17 +17177,11 @@
       <c r="D99" t="s">
         <v>463</v>
       </c>
-      <c r="E99" s="3">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -17834,14 +17197,8 @@
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -17857,14 +17214,8 @@
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -17880,14 +17231,8 @@
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -17903,14 +17248,8 @@
       <c r="E103">
         <v>1</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -17926,14 +17265,8 @@
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -17949,14 +17282,8 @@
       <c r="E105">
         <v>1</v>
       </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -17972,14 +17299,8 @@
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -17995,14 +17316,8 @@
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -18015,17 +17330,11 @@
       <c r="D108" t="s">
         <v>469</v>
       </c>
-      <c r="E108" s="3">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -18041,14 +17350,8 @@
       <c r="E109">
         <v>1</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -18061,17 +17364,11 @@
       <c r="D110" t="s">
         <v>389</v>
       </c>
-      <c r="E110" s="3">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -18087,14 +17384,8 @@
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -18110,14 +17401,8 @@
       <c r="E112">
         <v>1</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -18130,17 +17415,11 @@
       <c r="D113" t="s">
         <v>472</v>
       </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -18153,17 +17432,11 @@
       <c r="D114" t="s">
         <v>384</v>
       </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -18179,14 +17452,8 @@
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -18202,14 +17469,8 @@
       <c r="E116">
         <v>1</v>
       </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -18222,17 +17483,11 @@
       <c r="D117" t="s">
         <v>462</v>
       </c>
-      <c r="E117" s="3">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -18248,14 +17503,8 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -18271,14 +17520,8 @@
       <c r="E119">
         <v>1</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -18294,14 +17537,8 @@
       <c r="E120">
         <v>1</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -18317,14 +17554,8 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -18340,14 +17571,8 @@
       <c r="E122">
         <v>1</v>
       </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -18363,14 +17588,8 @@
       <c r="E123">
         <v>0</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -18386,14 +17605,8 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -18409,14 +17622,8 @@
       <c r="E125">
         <v>1</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -18432,14 +17639,8 @@
       <c r="E126">
         <v>1</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -18455,14 +17656,8 @@
       <c r="E127">
         <v>1</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -18478,14 +17673,8 @@
       <c r="E128">
         <v>1</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -18498,17 +17687,11 @@
       <c r="D129" t="s">
         <v>382</v>
       </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -18524,14 +17707,8 @@
       <c r="E130">
         <v>1</v>
       </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -18547,14 +17724,8 @@
       <c r="E131">
         <v>0</v>
       </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -18570,14 +17741,8 @@
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -18593,14 +17758,8 @@
       <c r="E133">
         <v>1</v>
       </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -18613,17 +17772,11 @@
       <c r="D134" t="s">
         <v>485</v>
       </c>
-      <c r="E134" s="3">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -18639,14 +17792,8 @@
       <c r="E135">
         <v>1</v>
       </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -18662,14 +17809,8 @@
       <c r="E136">
         <v>1</v>
       </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -18685,14 +17826,8 @@
       <c r="E137">
         <v>1</v>
       </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -18708,14 +17843,8 @@
       <c r="E138">
         <v>0</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -18731,14 +17860,8 @@
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -18754,14 +17877,8 @@
       <c r="E140">
         <v>1</v>
       </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -18774,17 +17891,11 @@
       <c r="D141" t="s">
         <v>397</v>
       </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -18797,17 +17908,11 @@
       <c r="D142" t="s">
         <v>490</v>
       </c>
-      <c r="E142" s="3">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -18820,17 +17925,11 @@
       <c r="D143" t="s">
         <v>390</v>
       </c>
-      <c r="E143" s="3">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -18846,14 +17945,8 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -18869,14 +17962,8 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -18889,17 +17976,11 @@
       <c r="D146" t="s">
         <v>463</v>
       </c>
-      <c r="E146" s="3">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -18912,17 +17993,11 @@
       <c r="D147" t="s">
         <v>399</v>
       </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -18938,14 +18013,8 @@
       <c r="E148">
         <v>1</v>
       </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -18961,14 +18030,8 @@
       <c r="E149">
         <v>1</v>
       </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -18984,14 +18047,8 @@
       <c r="E150">
         <v>1</v>
       </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -19007,14 +18064,8 @@
       <c r="E151">
         <v>1</v>
       </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -19027,17 +18078,11 @@
       <c r="D152" t="s">
         <v>401</v>
       </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -19050,17 +18095,11 @@
       <c r="D153" t="s">
         <v>451</v>
       </c>
-      <c r="E153" s="3">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -19076,14 +18115,8 @@
       <c r="E154">
         <v>1</v>
       </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -19099,14 +18132,8 @@
       <c r="E155">
         <v>1</v>
       </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -19119,17 +18146,11 @@
       <c r="D156" t="s">
         <v>497</v>
       </c>
-      <c r="E156" s="3">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -19145,14 +18166,8 @@
       <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -19165,17 +18180,11 @@
       <c r="D158" t="s">
         <v>498</v>
       </c>
-      <c r="E158" s="3">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -19191,14 +18200,8 @@
       <c r="E159">
         <v>1</v>
       </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -19214,14 +18217,8 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -19237,14 +18234,8 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -19260,14 +18251,8 @@
       <c r="E162">
         <v>1</v>
       </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -19283,14 +18268,8 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -19306,14 +18285,8 @@
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -19329,14 +18302,8 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -19352,14 +18319,8 @@
       <c r="E166">
         <v>1</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -19372,17 +18333,11 @@
       <c r="D167" t="s">
         <v>428</v>
       </c>
-      <c r="E167" s="3">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -19398,14 +18353,8 @@
       <c r="E168">
         <v>1</v>
       </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -19421,14 +18370,8 @@
       <c r="E169">
         <v>1</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -19441,17 +18384,11 @@
       <c r="D170" t="s">
         <v>506</v>
       </c>
-      <c r="E170" s="3">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -19467,14 +18404,8 @@
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -19487,17 +18418,11 @@
       <c r="D172" t="s">
         <v>508</v>
       </c>
-      <c r="E172" s="3">
-        <v>1</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -19510,17 +18435,11 @@
       <c r="D173" t="s">
         <v>451</v>
       </c>
-      <c r="E173" s="3">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -19536,14 +18455,8 @@
       <c r="E174">
         <v>1</v>
       </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -19556,17 +18469,11 @@
       <c r="D175" t="s">
         <v>399</v>
       </c>
-      <c r="E175" s="3">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -19579,17 +18486,11 @@
       <c r="D176" t="s">
         <v>384</v>
       </c>
-      <c r="E176" s="3">
-        <v>1</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -19605,14 +18506,8 @@
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -19628,14 +18523,8 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -19651,14 +18540,8 @@
       <c r="E179">
         <v>1</v>
       </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -19671,17 +18554,11 @@
       <c r="D180" t="s">
         <v>511</v>
       </c>
-      <c r="E180" s="3">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -19694,17 +18571,11 @@
       <c r="D181" t="s">
         <v>439</v>
       </c>
-      <c r="E181" s="3">
-        <v>1</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -19717,17 +18588,11 @@
       <c r="D182" t="s">
         <v>447</v>
       </c>
-      <c r="E182" s="3">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -19743,14 +18608,8 @@
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -19763,17 +18622,11 @@
       <c r="D184" t="s">
         <v>413</v>
       </c>
-      <c r="E184" s="3">
-        <v>1</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -19789,14 +18642,8 @@
       <c r="E185">
         <v>0</v>
       </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -19809,17 +18656,11 @@
       <c r="D186" t="s">
         <v>514</v>
       </c>
-      <c r="E186" s="3">
-        <v>1</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -19832,17 +18673,11 @@
       <c r="D187" t="s">
         <v>515</v>
       </c>
-      <c r="E187" s="3">
-        <v>1</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -19855,17 +18690,11 @@
       <c r="D188" t="s">
         <v>516</v>
       </c>
-      <c r="E188" s="3">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -19878,17 +18707,11 @@
       <c r="D189" t="s">
         <v>482</v>
       </c>
-      <c r="E189" s="3">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -19901,17 +18724,11 @@
       <c r="D190" t="s">
         <v>517</v>
       </c>
-      <c r="E190" s="3">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -19924,17 +18741,11 @@
       <c r="D191" t="s">
         <v>399</v>
       </c>
-      <c r="E191" s="3">
-        <v>1</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -19950,14 +18761,8 @@
       <c r="E192">
         <v>1</v>
       </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -19973,14 +18778,8 @@
       <c r="E193">
         <v>1</v>
       </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -19996,14 +18795,8 @@
       <c r="E194">
         <v>1</v>
       </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -20019,14 +18812,8 @@
       <c r="E195">
         <v>0</v>
       </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -20042,14 +18829,8 @@
       <c r="E196">
         <v>1</v>
       </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -20062,17 +18843,11 @@
       <c r="D197" t="s">
         <v>520</v>
       </c>
-      <c r="E197" s="3">
-        <v>1</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -20088,14 +18863,8 @@
       <c r="E198">
         <v>1</v>
       </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -20111,14 +18880,8 @@
       <c r="E199">
         <v>0</v>
       </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -20131,17 +18894,11 @@
       <c r="D200" t="s">
         <v>523</v>
       </c>
-      <c r="E200" s="3">
-        <v>1</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -20157,14 +18914,8 @@
       <c r="E201">
         <v>1</v>
       </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -20180,14 +18931,8 @@
       <c r="E202">
         <v>1</v>
       </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -20200,17 +18945,11 @@
       <c r="D203" t="s">
         <v>455</v>
       </c>
-      <c r="E203" s="3">
-        <v>1</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -20223,17 +18962,11 @@
       <c r="D204" t="s">
         <v>445</v>
       </c>
-      <c r="E204" s="3">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -20246,17 +18979,11 @@
       <c r="D205" t="s">
         <v>462</v>
       </c>
-      <c r="E205" s="3">
-        <v>1</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -20269,17 +18996,11 @@
       <c r="D206" t="s">
         <v>524</v>
       </c>
-      <c r="E206" s="3">
-        <v>1</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -20295,14 +19016,8 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -20318,14 +19033,8 @@
       <c r="E208">
         <v>1</v>
       </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -20341,14 +19050,8 @@
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -20361,17 +19064,11 @@
       <c r="D210" t="s">
         <v>413</v>
       </c>
-      <c r="E210" s="3">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>1</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -20384,17 +19081,11 @@
       <c r="D211" t="s">
         <v>451</v>
       </c>
-      <c r="E211" s="3">
-        <v>1</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -20410,14 +19101,8 @@
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -20430,17 +19115,11 @@
       <c r="D213" t="s">
         <v>526</v>
       </c>
-      <c r="E213" s="3">
-        <v>1</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -20456,14 +19135,8 @@
       <c r="E214">
         <v>1</v>
       </c>
-      <c r="F214">
-        <v>1</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -20479,14 +19152,8 @@
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="F215">
-        <v>1</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -20502,14 +19169,8 @@
       <c r="E216">
         <v>1</v>
       </c>
-      <c r="F216">
-        <v>1</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -20525,14 +19186,8 @@
       <c r="E217">
         <v>1</v>
       </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -20545,17 +19200,11 @@
       <c r="D218" t="s">
         <v>382</v>
       </c>
-      <c r="E218" s="3">
-        <v>1</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -20571,14 +19220,8 @@
       <c r="E219">
         <v>1</v>
       </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -20594,14 +19237,8 @@
       <c r="E220">
         <v>1</v>
       </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -20617,14 +19254,8 @@
       <c r="E221">
         <v>1</v>
       </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -20640,14 +19271,8 @@
       <c r="E222">
         <v>1</v>
       </c>
-      <c r="F222">
-        <v>1</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -20663,14 +19288,8 @@
       <c r="E223">
         <v>1</v>
       </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -20683,17 +19302,11 @@
       <c r="D224" t="s">
         <v>531</v>
       </c>
-      <c r="E224" s="3">
-        <v>0</v>
-      </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20709,14 +19322,8 @@
       <c r="E225">
         <v>1</v>
       </c>
-      <c r="F225">
-        <v>1</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20732,14 +19339,8 @@
       <c r="E226">
         <v>1</v>
       </c>
-      <c r="F226">
-        <v>1</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20755,14 +19356,8 @@
       <c r="E227">
         <v>1</v>
       </c>
-      <c r="F227">
-        <v>1</v>
-      </c>
-      <c r="G227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -20778,14 +19373,8 @@
       <c r="E228">
         <v>1</v>
       </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="G228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -20801,14 +19390,8 @@
       <c r="E229">
         <v>1</v>
       </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="G229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -20824,14 +19407,8 @@
       <c r="E230">
         <v>1</v>
       </c>
-      <c r="F230">
-        <v>1</v>
-      </c>
-      <c r="G230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -20844,17 +19421,11 @@
       <c r="D231" t="s">
         <v>536</v>
       </c>
-      <c r="E231" s="3">
-        <v>1</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -20867,17 +19438,11 @@
       <c r="D232" t="s">
         <v>386</v>
       </c>
-      <c r="E232" s="3">
-        <v>1</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -20890,17 +19455,11 @@
       <c r="D233" t="s">
         <v>537</v>
       </c>
-      <c r="E233" s="3">
-        <v>1</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -20916,14 +19475,8 @@
       <c r="E234">
         <v>1</v>
       </c>
-      <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="G234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -20936,17 +19489,11 @@
       <c r="D235" t="s">
         <v>480</v>
       </c>
-      <c r="E235" s="3">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>1</v>
-      </c>
-      <c r="G235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -20962,14 +19509,8 @@
       <c r="E236">
         <v>1</v>
       </c>
-      <c r="F236">
-        <v>1</v>
-      </c>
-      <c r="G236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -20985,14 +19526,8 @@
       <c r="E237">
         <v>1</v>
       </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -21005,17 +19540,11 @@
       <c r="D238" t="s">
         <v>431</v>
       </c>
-      <c r="E238" s="3">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -21031,14 +19560,8 @@
       <c r="E239">
         <v>0</v>
       </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -21054,14 +19577,8 @@
       <c r="E240">
         <v>0</v>
       </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -21074,17 +19591,11 @@
       <c r="D241" t="s">
         <v>392</v>
       </c>
-      <c r="E241" s="3">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -21100,14 +19611,8 @@
       <c r="E242">
         <v>1</v>
       </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -21120,17 +19625,11 @@
       <c r="D243" t="s">
         <v>431</v>
       </c>
-      <c r="E243" s="3">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -21146,14 +19645,8 @@
       <c r="E244">
         <v>0</v>
       </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -21169,14 +19662,8 @@
       <c r="E245">
         <v>1</v>
       </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -21189,17 +19676,11 @@
       <c r="D246" t="s">
         <v>540</v>
       </c>
-      <c r="E246" s="3">
-        <v>1</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-      <c r="G246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -21215,14 +19696,8 @@
       <c r="E247">
         <v>1</v>
       </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -21238,14 +19713,8 @@
       <c r="E248">
         <v>0</v>
       </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-      <c r="G248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -21258,17 +19727,11 @@
       <c r="D249" t="s">
         <v>541</v>
       </c>
-      <c r="E249" s="3">
-        <v>0</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -21281,17 +19744,11 @@
       <c r="D250" t="s">
         <v>510</v>
       </c>
-      <c r="E250" s="3">
-        <v>0</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -21307,14 +19764,8 @@
       <c r="E251">
         <v>1</v>
       </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -21330,14 +19781,8 @@
       <c r="E252">
         <v>1</v>
       </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -21353,14 +19798,8 @@
       <c r="E253">
         <v>1</v>
       </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -21376,14 +19815,8 @@
       <c r="E254">
         <v>1</v>
       </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -21396,17 +19829,11 @@
       <c r="D255" t="s">
         <v>543</v>
       </c>
-      <c r="E255" s="3">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>0</v>
-      </c>
-      <c r="G255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -21422,14 +19849,8 @@
       <c r="E256">
         <v>1</v>
       </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -21445,14 +19866,8 @@
       <c r="E257">
         <v>1</v>
       </c>
-      <c r="F257">
-        <v>1</v>
-      </c>
-      <c r="G257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -21468,14 +19883,8 @@
       <c r="E258">
         <v>1</v>
       </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="G258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -21491,14 +19900,8 @@
       <c r="E259">
         <v>1</v>
       </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-      <c r="G259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -21511,17 +19914,11 @@
       <c r="D260" t="s">
         <v>546</v>
       </c>
-      <c r="E260" s="3">
-        <v>0</v>
-      </c>
-      <c r="F260">
-        <v>1</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -21537,14 +19934,8 @@
       <c r="E261">
         <v>1</v>
       </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -21557,17 +19948,11 @@
       <c r="D262" t="s">
         <v>548</v>
       </c>
-      <c r="E262" s="3">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
-      <c r="G262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -21580,17 +19965,11 @@
       <c r="D263" t="s">
         <v>465</v>
       </c>
-      <c r="E263" s="3">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-      <c r="G263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -21603,17 +19982,11 @@
       <c r="D264" t="s">
         <v>549</v>
       </c>
-      <c r="E264" s="3">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="G264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -21626,17 +19999,11 @@
       <c r="D265" t="s">
         <v>519</v>
       </c>
-      <c r="E265" s="3">
-        <v>1</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -21649,17 +20016,11 @@
       <c r="D266" t="s">
         <v>550</v>
       </c>
-      <c r="E266" s="3">
-        <v>0</v>
-      </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="G266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -21675,14 +20036,8 @@
       <c r="E267">
         <v>1</v>
       </c>
-      <c r="F267">
-        <v>1</v>
-      </c>
-      <c r="G267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -21698,14 +20053,8 @@
       <c r="E268">
         <v>1</v>
       </c>
-      <c r="F268">
-        <v>1</v>
-      </c>
-      <c r="G268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -21721,14 +20070,8 @@
       <c r="E269">
         <v>1</v>
       </c>
-      <c r="F269">
-        <v>1</v>
-      </c>
-      <c r="G269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -21741,17 +20084,11 @@
       <c r="D270" t="s">
         <v>611</v>
       </c>
-      <c r="E270" s="3">
-        <v>0</v>
-      </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-      <c r="G270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -21767,14 +20104,8 @@
       <c r="E271">
         <v>0</v>
       </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="G271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -21790,14 +20121,8 @@
       <c r="E272">
         <v>1</v>
       </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-      <c r="G272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -21810,17 +20135,11 @@
       <c r="D273" t="s">
         <v>455</v>
       </c>
-      <c r="E273" s="3">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -21833,17 +20152,11 @@
       <c r="D274" t="s">
         <v>553</v>
       </c>
-      <c r="E274" s="3">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
-      </c>
-      <c r="G274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -21856,17 +20169,11 @@
       <c r="D275" t="s">
         <v>480</v>
       </c>
-      <c r="E275" s="3">
-        <v>1</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -21882,14 +20189,8 @@
       <c r="E276">
         <v>1</v>
       </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -21905,14 +20206,8 @@
       <c r="E277">
         <v>1</v>
       </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -21928,14 +20223,8 @@
       <c r="E278">
         <v>1</v>
       </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -21951,14 +20240,8 @@
       <c r="E279">
         <v>1</v>
       </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -21971,17 +20254,11 @@
       <c r="D280" t="s">
         <v>554</v>
       </c>
-      <c r="E280" s="3">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -21997,14 +20274,8 @@
       <c r="E281">
         <v>1</v>
       </c>
-      <c r="F281">
-        <v>1</v>
-      </c>
-      <c r="G281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -22020,14 +20291,8 @@
       <c r="E282">
         <v>1</v>
       </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -22043,14 +20308,8 @@
       <c r="E283">
         <v>1</v>
       </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -22066,14 +20325,8 @@
       <c r="E284">
         <v>1</v>
       </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -22089,14 +20342,8 @@
       <c r="E285">
         <v>1</v>
       </c>
-      <c r="F285">
-        <v>1</v>
-      </c>
-      <c r="G285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -22112,14 +20359,8 @@
       <c r="E286">
         <v>1</v>
       </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -22135,14 +20376,8 @@
       <c r="E287">
         <v>1</v>
       </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -22155,17 +20390,11 @@
       <c r="D288" t="s">
         <v>405</v>
       </c>
-      <c r="E288" s="3">
-        <v>0</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -22181,14 +20410,8 @@
       <c r="E289">
         <v>1</v>
       </c>
-      <c r="F289">
-        <v>1</v>
-      </c>
-      <c r="G289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -22204,14 +20427,8 @@
       <c r="E290">
         <v>1</v>
       </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -22227,14 +20444,8 @@
       <c r="E291">
         <v>1</v>
       </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -22250,14 +20461,8 @@
       <c r="E292">
         <v>1</v>
       </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -22270,17 +20475,11 @@
       <c r="D293" t="s">
         <v>561</v>
       </c>
-      <c r="E293" s="3">
-        <v>0</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -22296,14 +20495,8 @@
       <c r="E294">
         <v>1</v>
       </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -22319,14 +20512,8 @@
       <c r="E295">
         <v>1</v>
       </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -22342,14 +20529,8 @@
       <c r="E296">
         <v>1</v>
       </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -22365,14 +20546,8 @@
       <c r="E297">
         <v>1</v>
       </c>
-      <c r="F297">
-        <v>1</v>
-      </c>
-      <c r="G297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -22388,14 +20563,8 @@
       <c r="E298">
         <v>1</v>
       </c>
-      <c r="F298">
-        <v>1</v>
-      </c>
-      <c r="G298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -22411,14 +20580,8 @@
       <c r="E299">
         <v>0</v>
       </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -22431,17 +20594,11 @@
       <c r="D300" t="s">
         <v>432</v>
       </c>
-      <c r="E300" s="3">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>0</v>
-      </c>
-      <c r="G300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -22457,14 +20614,8 @@
       <c r="E301">
         <v>1</v>
       </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -22480,14 +20631,8 @@
       <c r="E302">
         <v>1</v>
       </c>
-      <c r="F302">
-        <v>1</v>
-      </c>
-      <c r="G302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -22503,14 +20648,8 @@
       <c r="E303">
         <v>1</v>
       </c>
-      <c r="F303">
-        <v>1</v>
-      </c>
-      <c r="G303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -22526,14 +20665,8 @@
       <c r="E304">
         <v>1</v>
       </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -22549,14 +20682,8 @@
       <c r="E305">
         <v>1</v>
       </c>
-      <c r="F305">
-        <v>1</v>
-      </c>
-      <c r="G305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -22572,14 +20699,8 @@
       <c r="E306">
         <v>1</v>
       </c>
-      <c r="F306">
-        <v>1</v>
-      </c>
-      <c r="G306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -22595,14 +20716,8 @@
       <c r="E307">
         <v>1</v>
       </c>
-      <c r="F307">
-        <v>1</v>
-      </c>
-      <c r="G307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -22615,17 +20730,11 @@
       <c r="D308" t="s">
         <v>496</v>
       </c>
-      <c r="E308" s="3">
-        <v>0</v>
-      </c>
-      <c r="F308">
-        <v>1</v>
-      </c>
-      <c r="G308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -22638,17 +20747,11 @@
       <c r="D309" t="s">
         <v>448</v>
       </c>
-      <c r="E309" s="3">
-        <v>0</v>
-      </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-      <c r="G309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -22661,17 +20764,11 @@
       <c r="D310" t="s">
         <v>568</v>
       </c>
-      <c r="E310" s="3">
-        <v>0</v>
-      </c>
-      <c r="F310">
-        <v>1</v>
-      </c>
-      <c r="G310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -22687,14 +20784,8 @@
       <c r="E311">
         <v>1</v>
       </c>
-      <c r="F311">
-        <v>1</v>
-      </c>
-      <c r="G311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -22707,17 +20798,11 @@
       <c r="D312" t="s">
         <v>569</v>
       </c>
-      <c r="E312" s="3">
-        <v>0</v>
-      </c>
-      <c r="F312">
-        <v>1</v>
-      </c>
-      <c r="G312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -22733,14 +20818,8 @@
       <c r="E313">
         <v>1</v>
       </c>
-      <c r="F313">
-        <v>1</v>
-      </c>
-      <c r="G313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -22756,14 +20835,8 @@
       <c r="E314">
         <v>1</v>
       </c>
-      <c r="F314">
-        <v>1</v>
-      </c>
-      <c r="G314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -22776,17 +20849,11 @@
       <c r="D315" t="s">
         <v>571</v>
       </c>
-      <c r="E315" s="3">
-        <v>0</v>
-      </c>
-      <c r="F315">
-        <v>1</v>
-      </c>
-      <c r="G315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -22802,14 +20869,8 @@
       <c r="E316">
         <v>1</v>
       </c>
-      <c r="F316">
-        <v>1</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -22825,14 +20886,8 @@
       <c r="E317">
         <v>1</v>
       </c>
-      <c r="F317">
-        <v>1</v>
-      </c>
-      <c r="G317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -22848,14 +20903,8 @@
       <c r="E318">
         <v>1</v>
       </c>
-      <c r="F318">
-        <v>1</v>
-      </c>
-      <c r="G318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -22868,17 +20917,11 @@
       <c r="D319" t="s">
         <v>574</v>
       </c>
-      <c r="E319" s="3">
-        <v>1</v>
-      </c>
-      <c r="F319">
-        <v>0</v>
-      </c>
-      <c r="G319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -22894,14 +20937,8 @@
       <c r="E320">
         <v>1</v>
       </c>
-      <c r="F320">
-        <v>1</v>
-      </c>
-      <c r="G320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -22917,14 +20954,8 @@
       <c r="E321">
         <v>1</v>
       </c>
-      <c r="F321">
-        <v>1</v>
-      </c>
-      <c r="G321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -22940,14 +20971,8 @@
       <c r="E322">
         <v>1</v>
       </c>
-      <c r="F322">
-        <v>1</v>
-      </c>
-      <c r="G322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -22963,14 +20988,8 @@
       <c r="E323">
         <v>1</v>
       </c>
-      <c r="F323">
-        <v>1</v>
-      </c>
-      <c r="G323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -22986,14 +21005,8 @@
       <c r="E324">
         <v>1</v>
       </c>
-      <c r="F324">
-        <v>1</v>
-      </c>
-      <c r="G324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -23009,14 +21022,8 @@
       <c r="E325">
         <v>1</v>
       </c>
-      <c r="F325">
-        <v>1</v>
-      </c>
-      <c r="G325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -23029,17 +21036,11 @@
       <c r="D326" t="s">
         <v>465</v>
       </c>
-      <c r="E326" s="3">
-        <v>1</v>
-      </c>
-      <c r="F326">
-        <v>0</v>
-      </c>
-      <c r="G326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -23055,14 +21056,8 @@
       <c r="E327">
         <v>1</v>
       </c>
-      <c r="F327">
-        <v>1</v>
-      </c>
-      <c r="G327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -23078,14 +21073,8 @@
       <c r="E328">
         <v>1</v>
       </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -23101,14 +21090,8 @@
       <c r="E329">
         <v>0</v>
       </c>
-      <c r="F329">
-        <v>0</v>
-      </c>
-      <c r="G329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -23124,14 +21107,8 @@
       <c r="E330">
         <v>1</v>
       </c>
-      <c r="F330">
-        <v>1</v>
-      </c>
-      <c r="G330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -23147,14 +21124,8 @@
       <c r="E331">
         <v>1</v>
       </c>
-      <c r="F331">
-        <v>1</v>
-      </c>
-      <c r="G331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -23170,14 +21141,8 @@
       <c r="E332">
         <v>1</v>
       </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -23193,14 +21158,8 @@
       <c r="E333">
         <v>1</v>
       </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -23216,14 +21175,8 @@
       <c r="E334">
         <v>1</v>
       </c>
-      <c r="F334">
-        <v>1</v>
-      </c>
-      <c r="G334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -23236,17 +21189,11 @@
       <c r="D335" t="s">
         <v>413</v>
       </c>
-      <c r="E335" s="3">
-        <v>0</v>
-      </c>
-      <c r="F335">
-        <v>1</v>
-      </c>
-      <c r="G335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -23262,14 +21209,8 @@
       <c r="E336">
         <v>1</v>
       </c>
-      <c r="F336">
-        <v>1</v>
-      </c>
-      <c r="G336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -23285,14 +21226,8 @@
       <c r="E337">
         <v>1</v>
       </c>
-      <c r="F337">
-        <v>1</v>
-      </c>
-      <c r="G337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -23305,17 +21240,11 @@
       <c r="D338" t="s">
         <v>583</v>
       </c>
-      <c r="E338" s="3">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -23331,14 +21260,8 @@
       <c r="E339">
         <v>1</v>
       </c>
-      <c r="F339">
-        <v>1</v>
-      </c>
-      <c r="G339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -23351,17 +21274,11 @@
       <c r="D340" t="s">
         <v>585</v>
       </c>
-      <c r="E340" s="3">
-        <v>0</v>
-      </c>
-      <c r="F340">
-        <v>1</v>
-      </c>
-      <c r="G340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -23374,17 +21291,11 @@
       <c r="D341" t="s">
         <v>586</v>
       </c>
-      <c r="E341" s="3">
-        <v>1</v>
-      </c>
-      <c r="F341">
-        <v>0</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -23400,14 +21311,8 @@
       <c r="E342">
         <v>1</v>
       </c>
-      <c r="F342">
-        <v>1</v>
-      </c>
-      <c r="G342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -23420,17 +21325,11 @@
       <c r="D343" t="s">
         <v>408</v>
       </c>
-      <c r="E343" s="3">
-        <v>0</v>
-      </c>
-      <c r="F343">
-        <v>1</v>
-      </c>
-      <c r="G343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -23446,14 +21345,8 @@
       <c r="E344">
         <v>1</v>
       </c>
-      <c r="F344">
-        <v>1</v>
-      </c>
-      <c r="G344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -23469,14 +21362,8 @@
       <c r="E345">
         <v>1</v>
       </c>
-      <c r="F345">
-        <v>1</v>
-      </c>
-      <c r="G345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -23492,14 +21379,8 @@
       <c r="E346">
         <v>1</v>
       </c>
-      <c r="F346">
-        <v>1</v>
-      </c>
-      <c r="G346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -23515,14 +21396,8 @@
       <c r="E347">
         <v>1</v>
       </c>
-      <c r="F347">
-        <v>1</v>
-      </c>
-      <c r="G347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -23538,14 +21413,8 @@
       <c r="E348">
         <v>1</v>
       </c>
-      <c r="F348">
-        <v>1</v>
-      </c>
-      <c r="G348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -23558,17 +21427,11 @@
       <c r="D349" t="s">
         <v>404</v>
       </c>
-      <c r="E349" s="3">
-        <v>0</v>
-      </c>
-      <c r="F349">
-        <v>1</v>
-      </c>
-      <c r="G349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -23581,17 +21444,11 @@
       <c r="D350" t="s">
         <v>421</v>
       </c>
-      <c r="E350" s="3">
-        <v>0</v>
-      </c>
-      <c r="F350">
-        <v>1</v>
-      </c>
-      <c r="G350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -23604,17 +21461,11 @@
       <c r="D351" t="s">
         <v>386</v>
       </c>
-      <c r="E351" s="3">
-        <v>1</v>
-      </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-      <c r="G351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -23630,14 +21481,8 @@
       <c r="E352">
         <v>1</v>
       </c>
-      <c r="F352">
-        <v>1</v>
-      </c>
-      <c r="G352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -23653,14 +21498,8 @@
       <c r="E353">
         <v>0</v>
       </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-      <c r="G353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -23676,14 +21515,8 @@
       <c r="E354">
         <v>1</v>
       </c>
-      <c r="F354">
-        <v>1</v>
-      </c>
-      <c r="G354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -23696,17 +21529,11 @@
       <c r="D355" t="s">
         <v>530</v>
       </c>
-      <c r="E355" s="3">
-        <v>1</v>
-      </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
-      <c r="G355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -23722,14 +21549,8 @@
       <c r="E356">
         <v>1</v>
       </c>
-      <c r="F356">
-        <v>1</v>
-      </c>
-      <c r="G356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -23745,14 +21566,8 @@
       <c r="E357">
         <v>1</v>
       </c>
-      <c r="F357">
-        <v>1</v>
-      </c>
-      <c r="G357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -23768,14 +21583,8 @@
       <c r="E358">
         <v>1</v>
       </c>
-      <c r="F358">
-        <v>1</v>
-      </c>
-      <c r="G358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -23788,17 +21597,11 @@
       <c r="D359" t="s">
         <v>590</v>
       </c>
-      <c r="E359" s="3">
-        <v>0</v>
-      </c>
-      <c r="F359">
-        <v>1</v>
-      </c>
-      <c r="G359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -23814,14 +21617,8 @@
       <c r="E360">
         <v>1</v>
       </c>
-      <c r="F360">
-        <v>1</v>
-      </c>
-      <c r="G360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -23837,14 +21634,8 @@
       <c r="E361">
         <v>1</v>
       </c>
-      <c r="F361">
-        <v>1</v>
-      </c>
-      <c r="G361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -23860,14 +21651,8 @@
       <c r="E362">
         <v>1</v>
       </c>
-      <c r="F362">
-        <v>1</v>
-      </c>
-      <c r="G362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -23883,14 +21668,8 @@
       <c r="E363">
         <v>1</v>
       </c>
-      <c r="F363">
-        <v>1</v>
-      </c>
-      <c r="G363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -23903,17 +21682,11 @@
       <c r="D364" t="s">
         <v>529</v>
       </c>
-      <c r="E364" s="3">
-        <v>1</v>
-      </c>
-      <c r="F364">
-        <v>0</v>
-      </c>
-      <c r="G364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -23929,14 +21702,8 @@
       <c r="E365">
         <v>1</v>
       </c>
-      <c r="F365">
-        <v>1</v>
-      </c>
-      <c r="G365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -23949,17 +21716,11 @@
       <c r="D366" t="s">
         <v>592</v>
       </c>
-      <c r="E366" s="3">
-        <v>0</v>
-      </c>
-      <c r="F366">
-        <v>1</v>
-      </c>
-      <c r="G366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -23975,14 +21736,8 @@
       <c r="E367">
         <v>1</v>
       </c>
-      <c r="F367">
-        <v>1</v>
-      </c>
-      <c r="G367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -23998,14 +21753,8 @@
       <c r="E368">
         <v>1</v>
       </c>
-      <c r="F368">
-        <v>1</v>
-      </c>
-      <c r="G368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -24018,17 +21767,11 @@
       <c r="D369" t="s">
         <v>593</v>
       </c>
-      <c r="E369" s="3">
-        <v>0</v>
-      </c>
-      <c r="F369">
-        <v>1</v>
-      </c>
-      <c r="G369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -24044,14 +21787,8 @@
       <c r="E370">
         <v>0</v>
       </c>
-      <c r="F370">
-        <v>0</v>
-      </c>
-      <c r="G370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -24067,14 +21804,8 @@
       <c r="E371">
         <v>1</v>
       </c>
-      <c r="F371">
-        <v>1</v>
-      </c>
-      <c r="G371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -24087,17 +21818,11 @@
       <c r="D372" t="s">
         <v>595</v>
       </c>
-      <c r="E372" s="3">
-        <v>0</v>
-      </c>
-      <c r="F372">
-        <v>1</v>
-      </c>
-      <c r="G372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -24113,14 +21838,8 @@
       <c r="E373">
         <v>1</v>
       </c>
-      <c r="F373">
-        <v>1</v>
-      </c>
-      <c r="G373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -24136,14 +21855,8 @@
       <c r="E374">
         <v>1</v>
       </c>
-      <c r="F374">
-        <v>1</v>
-      </c>
-      <c r="G374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -24159,14 +21872,8 @@
       <c r="E375">
         <v>1</v>
       </c>
-      <c r="F375">
-        <v>1</v>
-      </c>
-      <c r="G375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -24179,17 +21886,11 @@
       <c r="D376" t="s">
         <v>423</v>
       </c>
-      <c r="E376" s="3">
-        <v>0</v>
-      </c>
-      <c r="F376">
-        <v>1</v>
-      </c>
-      <c r="G376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -24202,17 +21903,11 @@
       <c r="D377" t="s">
         <v>598</v>
       </c>
-      <c r="E377" s="3">
-        <v>1</v>
-      </c>
-      <c r="F377">
-        <v>0</v>
-      </c>
-      <c r="G377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -24225,17 +21920,11 @@
       <c r="D378" t="s">
         <v>547</v>
       </c>
-      <c r="E378" s="3">
-        <v>1</v>
-      </c>
-      <c r="F378">
-        <v>0</v>
-      </c>
-      <c r="G378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -24248,17 +21937,11 @@
       <c r="D379" t="s">
         <v>599</v>
       </c>
-      <c r="E379" s="3">
-        <v>1</v>
-      </c>
-      <c r="F379">
-        <v>0</v>
-      </c>
-      <c r="G379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -24274,14 +21957,8 @@
       <c r="E380">
         <v>1</v>
       </c>
-      <c r="F380">
-        <v>1</v>
-      </c>
-      <c r="G380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -24297,14 +21974,8 @@
       <c r="E381">
         <v>1</v>
       </c>
-      <c r="F381">
-        <v>1</v>
-      </c>
-      <c r="G381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -24320,14 +21991,8 @@
       <c r="E382">
         <v>1</v>
       </c>
-      <c r="F382">
-        <v>1</v>
-      </c>
-      <c r="G382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -24343,14 +22008,8 @@
       <c r="E383">
         <v>1</v>
       </c>
-      <c r="F383">
-        <v>1</v>
-      </c>
-      <c r="G383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -24366,14 +22025,8 @@
       <c r="E384">
         <v>1</v>
       </c>
-      <c r="F384">
-        <v>1</v>
-      </c>
-      <c r="G384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -24386,17 +22039,11 @@
       <c r="D385" t="s">
         <v>602</v>
       </c>
-      <c r="E385" s="3">
-        <v>0</v>
-      </c>
-      <c r="F385">
-        <v>1</v>
-      </c>
-      <c r="G385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -24410,12 +22057,6 @@
         <v>530</v>
       </c>
       <c r="E386">
-        <v>1</v>
-      </c>
-      <c r="F386">
-        <v>1</v>
-      </c>
-      <c r="G386">
         <v>1</v>
       </c>
     </row>
